--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1289185176580774</v>
+        <v>-0.1534545817258671</v>
       </c>
       <c r="D2">
-        <v>0.897437564478524</v>
+        <v>0.8794386829777929</v>
       </c>
       <c r="E2">
         <v>1.157549644405006</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.824345946634755</v>
+        <v>1.858899280073114</v>
       </c>
       <c r="D3">
-        <v>0.06827743748076309</v>
+        <v>0.07647067566880916</v>
       </c>
       <c r="E3">
         <v>1.157549644405006</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.728076921868803</v>
+        <v>1.879444178685947</v>
       </c>
       <c r="D4">
-        <v>0.08415829968989352</v>
+        <v>0.07349497010435901</v>
       </c>
       <c r="E4">
         <v>1.157549644405006</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>5.617214717950668</v>
+        <v>3.886637124951239</v>
       </c>
       <c r="D5">
-        <v>2.267323817584099E-08</v>
+        <v>0.0007948725780655419</v>
       </c>
       <c r="E5">
         <v>1.157549644405006</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.967711023237698</v>
+        <v>2.013032339962128</v>
       </c>
       <c r="D6">
-        <v>0.04926566645728503</v>
+        <v>0.05650739767483692</v>
       </c>
       <c r="E6">
         <v>1.161010952331404</v>
@@ -557,7 +557,7 @@
         <v>1.106962146126908</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.799270344432572</v>
+        <v>1.983794753142436</v>
       </c>
       <c r="D7">
-        <v>0.07215542456304891</v>
+        <v>0.05989484828259251</v>
       </c>
       <c r="E7">
         <v>1.161010952331404</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>4.894362496567421</v>
+        <v>3.645023139327802</v>
       </c>
       <c r="D8">
-        <v>1.080867652936135E-06</v>
+        <v>0.00142770096975231</v>
       </c>
       <c r="E8">
         <v>1.161010952331404</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1462554531193657</v>
+        <v>0.1476646839790464</v>
       </c>
       <c r="D9">
-        <v>0.8837372881027878</v>
+        <v>0.8839523907436035</v>
       </c>
       <c r="E9">
         <v>1.106962146126908</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>3.697655691462555</v>
+        <v>2.742132000687696</v>
       </c>
       <c r="D10">
-        <v>0.0002245964589560057</v>
+        <v>0.01189581992882371</v>
       </c>
       <c r="E10">
         <v>1.106962146126908</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.995885664835964</v>
+        <v>2.384827022983488</v>
       </c>
       <c r="D11">
-        <v>0.002776576146162002</v>
+        <v>0.02613393036523814</v>
       </c>
       <c r="E11">
         <v>1.103768835258295</v>
